--- a/Templates/SingleFundNetValueList/default.xlsx
+++ b/Templates/SingleFundNetValueList/default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\funds\files\tpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\FMO\Templates\SingleFundNetValueList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3C6BA3-4B74-41CA-A5E3-30CFAEAAD9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DF897C-8C31-43BC-8455-DDF8BB8F9F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="21600" windowHeight="12670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="净值表" sheetId="1" r:id="rId1"/>
@@ -47,24 +47,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{nvs.Date}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{nvs.NetValue}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{nvs.CumNetValue}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{nvs.NetAsset}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{nvs.Asset}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{{dy.Date}}</t>
+  </si>
+  <si>
+    <t>{{dy.NetValue}}</t>
+  </si>
+  <si>
+    <t>{{dy.CumNetValue}}</t>
+  </si>
+  <si>
+    <t>{{dy.NetAsset}}</t>
+  </si>
+  <si>
+    <t>{{dy.Asset}}</t>
   </si>
 </sst>
 </file>
@@ -408,7 +403,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
